--- a/extra bestanden/Bachelorproef_data_iperf1_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_iperf1_4G-5G.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/els_palmans_hogent_be/Documents/Documenten/Els/Jan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C769695E-A1ED-4360-B92F-EA704BAE7E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0CB427-FDA2-4C00-A413-68EE2D396FA6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A032BF-2A59-4280-8BD7-1B0E6AFFB8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" tabRatio="780" xr2:uid="{21CFF6B4-FE24-40D0-95AD-8CD090C00066}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="21120" windowHeight="10632" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{21CFF6B4-FE24-40D0-95AD-8CD090C00066}"/>
   </bookViews>
   <sheets>
     <sheet name="iperf1 4G en 5G_volledig" sheetId="10" r:id="rId1"/>
@@ -29,23 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18291" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18295" uniqueCount="137">
   <si>
     <t>[</t>
   </si>
@@ -451,6 +440,12 @@
   <si>
     <t>4G/5G</t>
   </si>
+  <si>
+    <t>WI-FI</t>
+  </si>
+  <si>
+    <t>Bitrate (Mbits/sec</t>
+  </si>
 </sst>
 </file>
 
@@ -519,6 +514,871 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iperf1 4G en 5G_volledig (2)'!$E$485</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bitrate (Mbits/sec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iperf1 4G en 5G_volledig (2)'!$F$484:$I$484</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>WI-FI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iperf1 4G en 5G_volledig (2)'!$F$485:$I$485</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>94.284166666667346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.224999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>931.1583333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4942-47C2-95B9-3FE5F1C4D1DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="557359224"/>
+        <c:axId val="557366424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="557359224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557366424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557366424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557359224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DA6D1D-9345-5E42-4604-6EFE4A906095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -840,11 +1700,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE7DBE-2C86-4000-B808-BA3707D8867B}">
   <dimension ref="A1:K961"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A942" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -34481,11 +35341,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EABDF5-0A9B-451E-8AA9-C3D6FCE02358}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -38708,13 +39568,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC4BCB2-8CC0-48ED-9EA6-1ECDFCED4C5D}">
-  <dimension ref="A1:X481"/>
+  <dimension ref="A1:X485"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="E484" sqref="E484:I485"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -71397,8 +72257,37 @@
         <v>6</v>
       </c>
     </row>
+    <row r="484" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G484" t="s">
+        <v>135</v>
+      </c>
+      <c r="H484" t="s">
+        <v>131</v>
+      </c>
+      <c r="I484" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="485" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E485" t="s">
+        <v>136</v>
+      </c>
+      <c r="G485">
+        <f>AVERAGE(G2:G481)</f>
+        <v>94.284166666667346</v>
+      </c>
+      <c r="H485">
+        <f>(94.3+94.1+94.4+94.1+94.4+94.1+94.3+94.1)/8</f>
+        <v>94.224999999999994</v>
+      </c>
+      <c r="I485">
+        <f>AVERAGE(T2:T481)</f>
+        <v>931.1583333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -71410,7 +72299,7 @@
       <selection activeCell="C2" sqref="C2:K121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -75639,7 +76528,7 @@
       <selection activeCell="C2" sqref="C2:K121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -79868,7 +80757,7 @@
       <selection activeCell="C2" sqref="C2:K121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -84097,7 +84986,7 @@
       <selection activeCell="C2" sqref="C2:K121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -88326,7 +89215,7 @@
       <selection activeCell="C2" sqref="C2:K121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
@@ -92555,7 +93444,7 @@
       <selection activeCell="M2" sqref="M2:M121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="10" max="10" width="8.88671875" style="1"/>
   </cols>
@@ -97270,7 +98159,7 @@
       <selection activeCell="C2" sqref="C2:K121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">

--- a/extra bestanden/Bachelorproef_data_iperf1_4G-5G.xlsx
+++ b/extra bestanden/Bachelorproef_data_iperf1_4G-5G.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jande\Documents\AAA2024-2025\BPGit\extra bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A032BF-2A59-4280-8BD7-1B0E6AFFB8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1A3730-B3EB-4740-8004-34D4B0EF95D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="21120" windowHeight="10632" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{21CFF6B4-FE24-40D0-95AD-8CD090C00066}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="21120" windowHeight="10632" tabRatio="780" firstSheet="1" activeTab="1" xr2:uid="{21CFF6B4-FE24-40D0-95AD-8CD090C00066}"/>
   </bookViews>
   <sheets>
     <sheet name="iperf1 4G en 5G_volledig" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18295" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18296" uniqueCount="138">
   <si>
     <t>[</t>
   </si>
@@ -446,6 +446,9 @@
   <si>
     <t>Bitrate (Mbits/sec</t>
   </si>
+  <si>
+    <t>Cwnd (Bytes)</t>
+  </si>
 </sst>
 </file>
 
@@ -572,7 +575,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'iperf1 4G en 5G_volledig (2)'!$E$485</c:f>
+              <c:f>'iperf1 4G en 5G_volledig (2)'!$F$485</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -614,6 +617,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>94.284166666667346</c:v>
                 </c:pt>
@@ -1344,16 +1350,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>481</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>496</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39568,10 +39574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC4BCB2-8CC0-48ED-9EA6-1ECDFCED4C5D}">
-  <dimension ref="A1:X485"/>
+  <dimension ref="A1:X486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="E484" sqref="E484:I485"/>
+    <sheetView tabSelected="1" topLeftCell="D483" workbookViewId="0">
+      <selection activeCell="F484" sqref="F484:I486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -72269,7 +72275,7 @@
       </c>
     </row>
     <row r="485" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="E485" t="s">
+      <c r="F485" t="s">
         <v>136</v>
       </c>
       <c r="G485">
@@ -72283,6 +72289,22 @@
       <c r="I485">
         <f>AVERAGE(T2:T481)</f>
         <v>931.1583333333333</v>
+      </c>
+    </row>
+    <row r="486" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F486" t="s">
+        <v>137</v>
+      </c>
+      <c r="G486">
+        <f>AVERAGE(J3:J482)</f>
+        <v>412.75991649269309</v>
+      </c>
+      <c r="H486">
+        <v>421.37020000000001</v>
+      </c>
+      <c r="I486">
+        <f>AVERAGE(W3:W482)</f>
+        <v>655.36951983298536</v>
       </c>
     </row>
   </sheetData>
